--- a/artfynd/A 7383-2020.xlsx
+++ b/artfynd/A 7383-2020.xlsx
@@ -1363,7 +1363,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>88033246</v>
+        <v>91964238</v>
       </c>
       <c r="B8" t="n">
         <v>89392</v>
@@ -1397,10 +1397,9 @@
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Södra trånggraven, Dlr</t>
+          <t>Södra Trånggraven, Dlr</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1410,7 +1409,7 @@
         <v>6766202.963920709</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1439,7 +1438,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:01</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1449,7 +1448,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>00:00</t>
+          <t>18:01</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1464,12 +1463,12 @@
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Urban Gunnarsson</t>
+          <t>Uno Skog</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Urban Gunnarsson, Uno Skog</t>
+          <t>Uno Skog, Urban Gunnarsson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
